--- a/data/trans_dic/P21D_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P21D_1_R-Edad-trans_dic.xlsx
@@ -683,10 +683,10 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.01056069312504493</v>
+        <v>0.01395332736717316</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.005572827798779745</v>
+        <v>0.00683005201315081</v>
       </c>
     </row>
     <row r="13">
@@ -777,10 +777,10 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.01110010108854132</v>
+        <v>0.01542209625533041</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.006582680303331961</v>
+        <v>0.008216261518388411</v>
       </c>
     </row>
     <row r="19">
@@ -914,10 +914,10 @@
       </c>
       <c r="C27" s="5" t="inlineStr"/>
       <c r="D27" s="5" t="n">
-        <v>0.003032907023771108</v>
+        <v>0.002664166611066165</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.00174751727754155</v>
+        <v>0.001366514325174383</v>
       </c>
     </row>
     <row r="28">
@@ -1198,10 +1198,10 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>3133</v>
+        <v>4139</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3060</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="16">
@@ -1326,10 +1326,10 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>2821</v>
+        <v>3920</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3368</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="24">
@@ -1514,10 +1514,10 @@
       </c>
       <c r="C35" s="6" t="inlineStr"/>
       <c r="D35" s="6" t="n">
-        <v>5147</v>
+        <v>4521</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>5706</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="36">
